--- a/ig/clcore/1.8.6/StructureDefinition-NombreCampana.xlsx
+++ b/ig/clcore/1.8.6/StructureDefinition-NombreCampana.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-20T08:46:12-03:00</t>
+    <t>2024-03-07T17:37:26-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/clcore/1.8.6/StructureDefinition-NombreCampana.xlsx
+++ b/ig/clcore/1.8.6/StructureDefinition-NombreCampana.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.7</t>
+    <t>1.8.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-07T17:37:26-03:00</t>
+    <t>2024-03-19T15:31:25-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
